--- a/0.일정/일정(박지현).xlsx
+++ b/0.일정/일정(박지현).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Css" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -177,12 +177,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -202,156 +196,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -361,9 +386,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -378,9 +401,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -395,33 +416,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -436,9 +449,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -453,9 +464,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -470,17 +479,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -489,9 +494,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -570,10 +573,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -582,10 +585,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -594,10 +597,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -606,10 +609,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -618,10 +621,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -630,16 +633,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1026,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.62500000" defaultRowHeight="16.500000"/>
@@ -1076,46 +1079,86 @@
       <c r="A4" s="4">
         <v>43547</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30.000000" customHeight="1">
       <c r="A5" s="4">
         <v>43548</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30.000000" customHeight="1">
       <c r="A6" s="4">
         <v>43549</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30.000000" customHeight="1">
       <c r="A7" s="4">
         <v>43550</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30.000000" customHeight="1">
       <c r="A8" s="4">
         <v>43551</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30.000000" customHeight="1">
       <c r="A9" s="4">
